--- a/ejbrace/Race results.xlsx
+++ b/ejbrace/Race results.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>Run 1</t>
   </si>
   <si>
     <t>Avg</t>
-  </si>
-  <si>
-    <t>Servlet</t>
   </si>
   <si>
     <t>EJB</t>
@@ -53,7 +50,19 @@
     <t>Max time (ms)</t>
   </si>
   <si>
-    <t>JAX-RS</t>
+    <t>Remote Servlet</t>
+  </si>
+  <si>
+    <t>Remote JAX-RS</t>
+  </si>
+  <si>
+    <t>Local EJB</t>
+  </si>
+  <si>
+    <t>Remote JAX-WS</t>
+  </si>
+  <si>
+    <t>Remote EJB (Default Transaction)</t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,11 +123,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -136,6 +154,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,6 +172,1460 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> call times (ms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5302153700007344E-2"/>
+          <c:y val="6.7167576857929651E-2"/>
+          <c:w val="0.84085159535780918"/>
+          <c:h val="0.73773766689759801"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remote EJB (Default Transaction)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>55.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.665999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.348999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.084000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.607999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remote Servlet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39.494999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.642000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.442999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.896999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remote JAX-RS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>43.191000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.738999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.953000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.911999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.645000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.281999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remote JAX-WS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local EJB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$45:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="352677040"/>
+        <c:axId val="352676256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="352677040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352676256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="352676256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352677040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557645</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,21 +1891,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="7" width="12.33203125" customWidth="1"/>
+    <col min="2" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -438,8 +1917,13 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -453,16 +1937,21 @@
       <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6">
         <v>10000</v>
@@ -476,17 +1965,22 @@
       <c r="E3" s="6">
         <v>10000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6">
         <v>10000</v>
       </c>
-      <c r="G3" s="7">
-        <f xml:space="preserve"> SUM(B3:F3) / COUNT(B3:F3)</f>
+      <c r="L3" s="7">
+        <f xml:space="preserve"> SUM(B3:K3) / COUNT(B3:K3)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6">
         <v>33964</v>
@@ -500,17 +1994,22 @@
       <c r="E4" s="6">
         <v>29089</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>25870</v>
       </c>
-      <c r="G4" s="7">
-        <f xml:space="preserve"> SUM(B4:F4) / COUNT(B4:F4)</f>
+      <c r="L4" s="7">
+        <f xml:space="preserve"> SUM(B4:K4) / COUNT(B4:K4)</f>
         <v>28536.400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>3.3959999999999999</v>
@@ -524,17 +2023,22 @@
       <c r="E5" s="6">
         <v>2.9089999999999998</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>2.5870000000000002</v>
       </c>
-      <c r="G5" s="7">
-        <f xml:space="preserve"> SUM(B5:F5) / COUNT(B5:F5)</f>
+      <c r="L5" s="7">
+        <f xml:space="preserve"> SUM(B5:K5) / COUNT(B5:K5)</f>
         <v>2.8536000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -548,17 +2052,22 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
-        <f xml:space="preserve"> SUM(B6:F6) / COUNT(B6:F6)</f>
+      <c r="L6" s="7">
+        <f xml:space="preserve"> SUM(B6:K6) / COUNT(B6:K6)</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6">
         <v>304</v>
@@ -572,29 +2081,39 @@
       <c r="E7" s="6">
         <v>308</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
         <v>36</v>
       </c>
-      <c r="G7" s="7">
-        <f xml:space="preserve"> SUM(B7:F7) / COUNT(B7:F7)</f>
+      <c r="L7" s="7">
+        <f xml:space="preserve"> SUM(B7:K7) / COUNT(B7:K7)</f>
         <v>251.6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>0</v>
+      <c r="B10" s="4">
+        <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -608,145 +2127,240 @@
       <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>9</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L11" s="6">
+        <f xml:space="preserve"> SUM(B11:K11) / COUNT(B11:K11)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C11" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="6">
-        <f xml:space="preserve"> SUM(B11:F11) / COUNT(B11:F11)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="6">
+        <v>111299</v>
+      </c>
+      <c r="C12" s="6">
+        <v>109231</v>
+      </c>
+      <c r="D12" s="6">
+        <v>111332</v>
+      </c>
+      <c r="E12" s="6">
+        <v>108375</v>
+      </c>
+      <c r="F12" s="6">
+        <v>107149</v>
+      </c>
+      <c r="G12" s="6">
+        <v>108697</v>
+      </c>
+      <c r="H12" s="6">
+        <v>108123</v>
+      </c>
+      <c r="I12" s="6">
+        <v>110168</v>
+      </c>
+      <c r="J12" s="6">
+        <v>110317</v>
+      </c>
+      <c r="K12" s="6">
+        <v>113216</v>
+      </c>
+      <c r="L12" s="6">
+        <f xml:space="preserve"> SUM(B12:K12) / COUNT(B12:K12)</f>
+        <v>109790.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6">
-        <v>137568</v>
-      </c>
-      <c r="C12" s="6">
-        <v>120797</v>
-      </c>
-      <c r="D12" s="6">
-        <v>114967</v>
-      </c>
-      <c r="E12" s="6">
-        <v>108586</v>
-      </c>
-      <c r="F12" s="6">
-        <v>99924</v>
-      </c>
-      <c r="G12" s="6">
-        <f xml:space="preserve"> SUM(B12:F12) / COUNT(B12:F12)</f>
-        <v>116368.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="6">
+        <v>55.65</v>
+      </c>
+      <c r="C13" s="6">
+        <v>54.616</v>
+      </c>
+      <c r="D13" s="6">
+        <v>55.665999999999997</v>
+      </c>
+      <c r="E13" s="6">
+        <v>54.188000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <v>53.575000000000003</v>
+      </c>
+      <c r="G13" s="6">
+        <v>54.348999999999997</v>
+      </c>
+      <c r="H13" s="6">
+        <v>54.061999999999998</v>
+      </c>
+      <c r="I13" s="6">
+        <v>55.084000000000003</v>
+      </c>
+      <c r="J13" s="6">
+        <v>55.158999999999999</v>
+      </c>
+      <c r="K13" s="6">
+        <v>56.607999999999997</v>
+      </c>
+      <c r="L13" s="6">
+        <f xml:space="preserve"> SUM(B13:K13) / COUNT(B13:K13)</f>
+        <v>54.895699999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6">
-        <v>13.757</v>
-      </c>
-      <c r="C13" s="6">
-        <v>12.08</v>
-      </c>
-      <c r="D13" s="6">
-        <v>11.497</v>
-      </c>
-      <c r="E13" s="6">
-        <v>10.859</v>
-      </c>
-      <c r="F13" s="6">
-        <v>9.9920000000000009</v>
-      </c>
-      <c r="G13" s="6">
-        <f xml:space="preserve"> SUM(B13:F13) / COUNT(B13:F13)</f>
-        <v>11.637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="6">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6">
+        <v>41</v>
+      </c>
+      <c r="H14" s="6">
+        <v>38</v>
+      </c>
+      <c r="I14" s="6">
+        <v>40</v>
+      </c>
+      <c r="J14" s="6">
+        <v>41</v>
+      </c>
+      <c r="K14" s="6">
+        <v>42</v>
+      </c>
+      <c r="L14" s="6">
+        <f xml:space="preserve"> SUM(B14:K14) / COUNT(B14:K14)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="6">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6">
-        <f xml:space="preserve"> SUM(B14:F14) / COUNT(B14:F14)</f>
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="6">
+        <v>227</v>
+      </c>
+      <c r="C15" s="6">
+        <v>143</v>
+      </c>
+      <c r="D15" s="6">
+        <v>154</v>
+      </c>
+      <c r="E15" s="6">
+        <v>131</v>
+      </c>
+      <c r="F15" s="6">
+        <v>370</v>
+      </c>
+      <c r="G15" s="6">
+        <v>145</v>
+      </c>
+      <c r="H15" s="6">
+        <v>111</v>
+      </c>
+      <c r="I15" s="6">
+        <v>176</v>
+      </c>
+      <c r="J15" s="6">
+        <v>352</v>
+      </c>
+      <c r="K15" s="6">
+        <v>151</v>
+      </c>
+      <c r="L15" s="6">
+        <f xml:space="preserve"> SUM(B15:K15) / COUNT(B15:K15)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6">
-        <v>3021</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3014</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3011</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3010</v>
-      </c>
-      <c r="F15" s="6">
-        <v>3011</v>
-      </c>
-      <c r="G15" s="6">
-        <f xml:space="preserve"> SUM(B15:F15) / COUNT(B15:F15)</f>
-        <v>3013.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
+      <c r="B18" s="4">
+        <v>1</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -760,82 +2374,871 @@
       <c r="F18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="4">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4">
+        <v>7</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="6">
+        <f xml:space="preserve"> SUM(B19:K19) / COUNT(B19:K19)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="e">
-        <f xml:space="preserve"> SUM(B19:F19) / COUNT(B19:F19)</f>
+      <c r="B20" s="6">
+        <v>78990</v>
+      </c>
+      <c r="C20" s="6">
+        <v>83609</v>
+      </c>
+      <c r="D20" s="6">
+        <v>81830</v>
+      </c>
+      <c r="E20" s="6">
+        <v>79061</v>
+      </c>
+      <c r="F20" s="6">
+        <v>79284</v>
+      </c>
+      <c r="G20" s="6">
+        <v>82723</v>
+      </c>
+      <c r="H20" s="6">
+        <v>80886</v>
+      </c>
+      <c r="I20" s="6">
+        <v>77158</v>
+      </c>
+      <c r="J20" s="6">
+        <v>82739</v>
+      </c>
+      <c r="K20" s="6">
+        <v>79793</v>
+      </c>
+      <c r="L20" s="6">
+        <f xml:space="preserve"> SUM(B20:K20) / COUNT(B20:K20)</f>
+        <v>80607.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6">
+        <v>39.494999999999997</v>
+      </c>
+      <c r="C21" s="6">
+        <v>41.805</v>
+      </c>
+      <c r="D21" s="6">
+        <v>40.914999999999999</v>
+      </c>
+      <c r="E21" s="6">
+        <v>39.530999999999999</v>
+      </c>
+      <c r="F21" s="6">
+        <v>39.642000000000003</v>
+      </c>
+      <c r="G21" s="6">
+        <v>41.362000000000002</v>
+      </c>
+      <c r="H21" s="6">
+        <v>40.442999999999998</v>
+      </c>
+      <c r="I21" s="6">
+        <v>38.579000000000001</v>
+      </c>
+      <c r="J21" s="6">
+        <v>41.37</v>
+      </c>
+      <c r="K21" s="6">
+        <v>39.896999999999998</v>
+      </c>
+      <c r="L21" s="6">
+        <f xml:space="preserve"> SUM(B21:K21) / COUNT(B21:K21)</f>
+        <v>40.303899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="6">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6">
+        <v>28</v>
+      </c>
+      <c r="F22" s="6">
+        <v>28</v>
+      </c>
+      <c r="G22" s="6">
+        <v>28</v>
+      </c>
+      <c r="H22" s="6">
+        <v>28</v>
+      </c>
+      <c r="I22" s="6">
+        <v>28</v>
+      </c>
+      <c r="J22" s="6">
+        <v>28</v>
+      </c>
+      <c r="K22" s="6">
+        <v>27</v>
+      </c>
+      <c r="L22" s="6">
+        <f xml:space="preserve"> SUM(B22:K22) / COUNT(B22:K22)</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="6">
+        <v>374</v>
+      </c>
+      <c r="C23" s="6">
+        <v>207</v>
+      </c>
+      <c r="D23" s="6">
+        <v>423</v>
+      </c>
+      <c r="E23" s="6">
+        <v>356</v>
+      </c>
+      <c r="F23" s="6">
+        <v>208</v>
+      </c>
+      <c r="G23" s="6">
+        <v>126</v>
+      </c>
+      <c r="H23" s="6">
+        <v>167</v>
+      </c>
+      <c r="I23" s="6">
+        <v>349</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1025</v>
+      </c>
+      <c r="K23" s="6">
+        <v>441</v>
+      </c>
+      <c r="L23" s="6">
+        <f xml:space="preserve"> SUM(B23:K23) / COUNT(B23:K23)</f>
+        <v>367.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4">
+        <v>8</v>
+      </c>
+      <c r="J26" s="4">
+        <v>9</v>
+      </c>
+      <c r="K26" s="4">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K27" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L27" s="6">
+        <f xml:space="preserve"> SUM(B27:K27) / COUNT(B27:K27)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6">
+        <v>86381</v>
+      </c>
+      <c r="C28" s="6">
+        <v>87477</v>
+      </c>
+      <c r="D28" s="6">
+        <v>87409</v>
+      </c>
+      <c r="E28" s="6">
+        <v>87905</v>
+      </c>
+      <c r="F28" s="6">
+        <v>86099</v>
+      </c>
+      <c r="G28" s="6">
+        <v>85823</v>
+      </c>
+      <c r="H28" s="6">
+        <v>85519</v>
+      </c>
+      <c r="I28" s="6">
+        <v>89290</v>
+      </c>
+      <c r="J28" s="6">
+        <v>86672</v>
+      </c>
+      <c r="K28" s="6">
+        <v>88563</v>
+      </c>
+      <c r="L28" s="6">
+        <f xml:space="preserve"> SUM(B28:K28) / COUNT(B28:K28)</f>
+        <v>87113.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="6">
+        <v>43.191000000000003</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43.738999999999997</v>
+      </c>
+      <c r="D29" s="6">
+        <v>43.704999999999998</v>
+      </c>
+      <c r="E29" s="6">
+        <v>43.953000000000003</v>
+      </c>
+      <c r="F29" s="6">
+        <v>43.05</v>
+      </c>
+      <c r="G29" s="6">
+        <v>42.911999999999999</v>
+      </c>
+      <c r="H29" s="6">
+        <v>42.76</v>
+      </c>
+      <c r="I29" s="6">
+        <v>44.645000000000003</v>
+      </c>
+      <c r="J29" s="6">
+        <v>43.335999999999999</v>
+      </c>
+      <c r="K29" s="6">
+        <v>44.281999999999996</v>
+      </c>
+      <c r="L29" s="6">
+        <f xml:space="preserve"> SUM(B29:K29) / COUNT(B29:K29)</f>
+        <v>43.557299999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6">
+        <v>33</v>
+      </c>
+      <c r="D30" s="6">
+        <v>33</v>
+      </c>
+      <c r="E30" s="6">
+        <v>34</v>
+      </c>
+      <c r="F30" s="6">
+        <v>34</v>
+      </c>
+      <c r="G30" s="6">
+        <v>33</v>
+      </c>
+      <c r="H30" s="6">
+        <v>33</v>
+      </c>
+      <c r="I30" s="6">
+        <v>34</v>
+      </c>
+      <c r="J30" s="6">
+        <v>34</v>
+      </c>
+      <c r="K30" s="6">
+        <v>33</v>
+      </c>
+      <c r="L30" s="6">
+        <f xml:space="preserve"> SUM(B30:K30) / COUNT(B30:K30)</f>
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="6">
+        <v>268</v>
+      </c>
+      <c r="C31" s="6">
+        <v>475</v>
+      </c>
+      <c r="D31" s="6">
+        <v>264</v>
+      </c>
+      <c r="E31" s="6">
+        <v>253</v>
+      </c>
+      <c r="F31" s="6">
+        <v>492</v>
+      </c>
+      <c r="G31" s="6">
+        <v>505</v>
+      </c>
+      <c r="H31" s="6">
+        <v>285</v>
+      </c>
+      <c r="I31" s="6">
+        <v>907</v>
+      </c>
+      <c r="J31" s="6">
+        <v>446</v>
+      </c>
+      <c r="K31" s="6">
+        <v>492</v>
+      </c>
+      <c r="L31" s="6">
+        <f xml:space="preserve"> SUM(B31:K31) / COUNT(B31:K31)</f>
+        <v>438.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4">
+        <v>7</v>
+      </c>
+      <c r="I34" s="4">
+        <v>8</v>
+      </c>
+      <c r="J34" s="4">
+        <v>9</v>
+      </c>
+      <c r="K34" s="4">
+        <v>10</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6" t="e">
+        <f xml:space="preserve"> SUM(B35:K35) / COUNT(B35:K35)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6" t="e">
+        <f xml:space="preserve"> SUM(B36:K36) / COUNT(B36:K36)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="e">
-        <f xml:space="preserve"> SUM(B20:F20) / COUNT(B20:F20)</f>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6" t="e">
+        <f xml:space="preserve"> SUM(B37:K37) / COUNT(B37:K37)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6" t="e">
-        <f xml:space="preserve"> SUM(B21:F21) / COUNT(B21:F21)</f>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6" t="e">
+        <f xml:space="preserve"> SUM(B38:K38) / COUNT(B38:K38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="e">
-        <f xml:space="preserve"> SUM(B22:F22) / COUNT(B22:F22)</f>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6" t="e">
+        <f xml:space="preserve"> SUM(B39:K39) / COUNT(B39:K39)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4">
+        <v>5</v>
+      </c>
+      <c r="G42" s="4">
+        <v>6</v>
+      </c>
+      <c r="H42" s="4">
+        <v>7</v>
+      </c>
+      <c r="I42" s="4">
         <v>8</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="e">
-        <f xml:space="preserve"> SUM(B23:F23) / COUNT(B23:F23)</f>
-        <v>#DIV/0!</v>
+      <c r="J42" s="4">
+        <v>9</v>
+      </c>
+      <c r="K42" s="4">
+        <v>10</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K43" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L43" s="6">
+        <f xml:space="preserve"> SUM(B43:K43) / COUNT(B43:K43)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="6">
+        <v>427</v>
+      </c>
+      <c r="C44" s="6">
+        <v>283</v>
+      </c>
+      <c r="D44" s="6">
+        <v>200</v>
+      </c>
+      <c r="E44" s="6">
+        <v>201</v>
+      </c>
+      <c r="F44" s="6">
+        <v>154</v>
+      </c>
+      <c r="G44" s="6">
+        <v>36</v>
+      </c>
+      <c r="H44" s="6">
+        <v>23</v>
+      </c>
+      <c r="I44" s="6">
+        <v>26</v>
+      </c>
+      <c r="J44" s="6">
+        <v>21</v>
+      </c>
+      <c r="K44" s="6">
+        <v>27</v>
+      </c>
+      <c r="L44" s="6">
+        <f xml:space="preserve"> SUM(B44:K44) / COUNT(B44:K44)</f>
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.214</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F45" s="6">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L45" s="6">
+        <f xml:space="preserve"> SUM(B45:K45) / COUNT(B45:K45)</f>
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <f xml:space="preserve"> SUM(B46:K46) / COUNT(B46:K46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>15</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4</v>
+      </c>
+      <c r="E47" s="6">
+        <v>21</v>
+      </c>
+      <c r="F47" s="6">
+        <v>10</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1</v>
+      </c>
+      <c r="L47" s="6">
+        <f xml:space="preserve"> SUM(B47:K47) / COUNT(B47:K47)</f>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A41:C41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ejbrace/Race results.xlsx
+++ b/ejbrace/Race results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>Run 1</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Remote EJB (Default Transaction)</t>
+  </si>
+  <si>
+    <t>Remote EJB (Transaction Never)</t>
+  </si>
+  <si>
+    <t>Remote EJB (Transaction Supports)</t>
   </si>
 </sst>
 </file>
@@ -256,10 +262,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5302153700007344E-2"/>
+          <c:x val="6.526292091246233E-2"/>
           <c:y val="6.7167576857929651E-2"/>
-          <c:w val="0.84085159535780918"/>
-          <c:h val="0.73773766689759801"/>
+          <c:w val="0.87089086288358375"/>
+          <c:h val="0.77012922374662163"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -702,21 +708,51 @@
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="5"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$41</c:f>
+              <c:f>Sheet1!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local EJB</c:v>
+                  <c:v>Remote EJB (Transaction Never)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -724,7 +760,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -735,11 +771,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -786,39 +822,163 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$45:$K$45</c:f>
+              <c:f>Sheet1!$B$53:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.214</c:v>
+                  <c:v>54.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>54.924999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>53.372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10100000000000001</c:v>
+                  <c:v>54.512999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6999999999999999E-2</c:v>
+                  <c:v>53.609000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>52.802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>53.405000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>52.424999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>53.290999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>53.039000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remote EJB (Transaction Supports)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$K$61</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>53.058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.250999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.005000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.345999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.655999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.162999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,11 +993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352677040"/>
-        <c:axId val="352676256"/>
+        <c:axId val="348716632"/>
+        <c:axId val="348715848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352677040"/>
+        <c:axId val="348716632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,14 +1054,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352676256"/>
+        <c:crossAx val="348715848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352676256"/>
+        <c:axId val="348715848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -956,7 +1117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352677040"/>
+        <c:crossAx val="348716632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1597,16 +1758,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>557645</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>59228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>83127</xdr:rowOff>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1891,14 +2052,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="B9" sqref="B9"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11:K15"/>
+      <selection pane="bottomRight" activeCell="K59" sqref="K59:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,19 +3090,39 @@
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6" t="e">
+      <c r="B37" s="6">
+        <v>35</v>
+      </c>
+      <c r="C37" s="6">
+        <v>35</v>
+      </c>
+      <c r="D37" s="6">
+        <v>35</v>
+      </c>
+      <c r="E37" s="6">
+        <v>35</v>
+      </c>
+      <c r="F37" s="6">
+        <v>35</v>
+      </c>
+      <c r="G37" s="6">
+        <v>35</v>
+      </c>
+      <c r="H37" s="6">
+        <v>35</v>
+      </c>
+      <c r="I37" s="6">
+        <v>35</v>
+      </c>
+      <c r="J37" s="6">
+        <v>35</v>
+      </c>
+      <c r="K37" s="6">
+        <v>35</v>
+      </c>
+      <c r="L37" s="6">
         <f xml:space="preserve"> SUM(B37:K37) / COUNT(B37:K37)</f>
-        <v>#DIV/0!</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3229,8 +3410,504 @@
         <v>5.7</v>
       </c>
     </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
+      <c r="F50" s="4">
+        <v>5</v>
+      </c>
+      <c r="G50" s="4">
+        <v>6</v>
+      </c>
+      <c r="H50" s="4">
+        <v>7</v>
+      </c>
+      <c r="I50" s="4">
+        <v>8</v>
+      </c>
+      <c r="J50" s="4">
+        <v>9</v>
+      </c>
+      <c r="K50" s="4">
+        <v>10</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K51" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L51" s="6">
+        <f xml:space="preserve"> SUM(B51:K51) / COUNT(B51:K51)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6">
+        <v>109135</v>
+      </c>
+      <c r="C52" s="6">
+        <v>109849</v>
+      </c>
+      <c r="D52" s="6">
+        <v>106744</v>
+      </c>
+      <c r="E52" s="6">
+        <v>109025</v>
+      </c>
+      <c r="F52" s="6">
+        <v>107217</v>
+      </c>
+      <c r="G52" s="6">
+        <v>105604</v>
+      </c>
+      <c r="H52" s="6">
+        <v>106809</v>
+      </c>
+      <c r="I52" s="6">
+        <v>104850</v>
+      </c>
+      <c r="J52" s="6">
+        <v>106582</v>
+      </c>
+      <c r="K52" s="6">
+        <v>106078</v>
+      </c>
+      <c r="L52" s="6">
+        <f xml:space="preserve"> SUM(B52:K52) / COUNT(B52:K52)</f>
+        <v>107189.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="6">
+        <v>54.567999999999998</v>
+      </c>
+      <c r="C53" s="6">
+        <v>54.924999999999997</v>
+      </c>
+      <c r="D53" s="6">
+        <v>53.372</v>
+      </c>
+      <c r="E53" s="6">
+        <v>54.512999999999998</v>
+      </c>
+      <c r="F53" s="6">
+        <v>53.609000000000002</v>
+      </c>
+      <c r="G53" s="6">
+        <v>52.802</v>
+      </c>
+      <c r="H53" s="6">
+        <v>53.405000000000001</v>
+      </c>
+      <c r="I53" s="6">
+        <v>52.424999999999997</v>
+      </c>
+      <c r="J53" s="6">
+        <v>53.290999999999997</v>
+      </c>
+      <c r="K53" s="6">
+        <v>53.039000000000001</v>
+      </c>
+      <c r="L53" s="6">
+        <f xml:space="preserve"> SUM(B53:K53) / COUNT(B53:K53)</f>
+        <v>53.59490000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6">
+        <v>40</v>
+      </c>
+      <c r="C54" s="6">
+        <v>41</v>
+      </c>
+      <c r="D54" s="6">
+        <v>41</v>
+      </c>
+      <c r="E54" s="6">
+        <v>40</v>
+      </c>
+      <c r="F54" s="6">
+        <v>39</v>
+      </c>
+      <c r="G54" s="6">
+        <v>39</v>
+      </c>
+      <c r="H54" s="6">
+        <v>39</v>
+      </c>
+      <c r="I54" s="6">
+        <v>40</v>
+      </c>
+      <c r="J54" s="6">
+        <v>41</v>
+      </c>
+      <c r="K54" s="6">
+        <v>39</v>
+      </c>
+      <c r="L54" s="6">
+        <f xml:space="preserve"> SUM(B54:K54) / COUNT(B54:K54)</f>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="6">
+        <v>102</v>
+      </c>
+      <c r="C55" s="6">
+        <v>128</v>
+      </c>
+      <c r="D55" s="6">
+        <v>211</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1113</v>
+      </c>
+      <c r="F55" s="6">
+        <v>422</v>
+      </c>
+      <c r="G55" s="6">
+        <v>118</v>
+      </c>
+      <c r="H55" s="6">
+        <v>378</v>
+      </c>
+      <c r="I55" s="6">
+        <v>112</v>
+      </c>
+      <c r="J55" s="6">
+        <v>170</v>
+      </c>
+      <c r="K55" s="6">
+        <v>118</v>
+      </c>
+      <c r="L55" s="6">
+        <f xml:space="preserve"> SUM(B55:K55) / COUNT(B55:K55)</f>
+        <v>287.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4">
+        <v>4</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5</v>
+      </c>
+      <c r="G58" s="4">
+        <v>6</v>
+      </c>
+      <c r="H58" s="4">
+        <v>7</v>
+      </c>
+      <c r="I58" s="4">
+        <v>8</v>
+      </c>
+      <c r="J58" s="4">
+        <v>9</v>
+      </c>
+      <c r="K58" s="4">
+        <v>10</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K59" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L59" s="6">
+        <f xml:space="preserve"> SUM(B59:K59) / COUNT(B59:K59)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="6">
+        <v>106115</v>
+      </c>
+      <c r="C60" s="6">
+        <v>105395</v>
+      </c>
+      <c r="D60" s="6">
+        <v>106931</v>
+      </c>
+      <c r="E60" s="6">
+        <v>106501</v>
+      </c>
+      <c r="F60" s="6">
+        <v>108347</v>
+      </c>
+      <c r="G60" s="6">
+        <v>108010</v>
+      </c>
+      <c r="H60" s="6">
+        <v>108691</v>
+      </c>
+      <c r="I60" s="6">
+        <v>105347</v>
+      </c>
+      <c r="J60" s="6">
+        <v>107312</v>
+      </c>
+      <c r="K60" s="6">
+        <v>110325</v>
+      </c>
+      <c r="L60" s="6">
+        <f xml:space="preserve"> SUM(B60:K60) / COUNT(B60:K60)</f>
+        <v>107297.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="6">
+        <v>53.058</v>
+      </c>
+      <c r="C61" s="6">
+        <v>52.698</v>
+      </c>
+      <c r="D61" s="6">
+        <v>53.466000000000001</v>
+      </c>
+      <c r="E61" s="6">
+        <v>53.250999999999998</v>
+      </c>
+      <c r="F61" s="6">
+        <v>54.173999999999999</v>
+      </c>
+      <c r="G61" s="6">
+        <v>54.005000000000003</v>
+      </c>
+      <c r="H61" s="6">
+        <v>54.345999999999997</v>
+      </c>
+      <c r="I61" s="6">
+        <v>52.673999999999999</v>
+      </c>
+      <c r="J61" s="6">
+        <v>53.655999999999999</v>
+      </c>
+      <c r="K61" s="6">
+        <v>55.162999999999997</v>
+      </c>
+      <c r="L61" s="6">
+        <f xml:space="preserve"> SUM(B61:K61) / COUNT(B61:K61)</f>
+        <v>53.649099999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="6">
+        <v>39</v>
+      </c>
+      <c r="C62" s="6">
+        <v>40</v>
+      </c>
+      <c r="D62" s="6">
+        <v>41</v>
+      </c>
+      <c r="E62" s="6">
+        <v>41</v>
+      </c>
+      <c r="F62" s="6">
+        <v>40</v>
+      </c>
+      <c r="G62" s="6">
+        <v>41</v>
+      </c>
+      <c r="H62" s="6">
+        <v>40</v>
+      </c>
+      <c r="I62" s="6">
+        <v>39</v>
+      </c>
+      <c r="J62" s="6">
+        <v>39</v>
+      </c>
+      <c r="K62" s="6">
+        <v>40</v>
+      </c>
+      <c r="L62" s="6">
+        <f xml:space="preserve"> SUM(B62:K62) / COUNT(B62:K62)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="6">
+        <v>384</v>
+      </c>
+      <c r="C63" s="6">
+        <v>113</v>
+      </c>
+      <c r="D63" s="6">
+        <v>185</v>
+      </c>
+      <c r="E63" s="6">
+        <v>106</v>
+      </c>
+      <c r="F63" s="6">
+        <v>114</v>
+      </c>
+      <c r="G63" s="6">
+        <v>96</v>
+      </c>
+      <c r="H63" s="6">
+        <v>427</v>
+      </c>
+      <c r="I63" s="6">
+        <v>110</v>
+      </c>
+      <c r="J63" s="6">
+        <v>109</v>
+      </c>
+      <c r="K63" s="6">
+        <v>169</v>
+      </c>
+      <c r="L63" s="6">
+        <f xml:space="preserve"> SUM(B63:K63) / COUNT(B63:K63)</f>
+        <v>181.3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A25:C25"/>

--- a/ejbrace/Race results.xlsx
+++ b/ejbrace/Race results.xlsx
@@ -24,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
-  <si>
-    <t>Run 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="13">
   <si>
     <t>Avg</t>
-  </si>
-  <si>
-    <t>EJB</t>
   </si>
   <si>
     <t>Number of calls</t>
@@ -142,11 +136,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -158,8 +149,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -276,7 +265,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -311,7 +300,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -350,7 +339,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$K$13</c:f>
+              <c:f>Sheet1!$B$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -394,7 +383,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
+              <c:f>Sheet1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -429,7 +418,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -468,7 +457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$K$21</c:f>
+              <c:f>Sheet1!$B$13:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -512,7 +501,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$25</c:f>
+              <c:f>Sheet1!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -547,7 +536,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -586,7 +575,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$K$29</c:f>
+              <c:f>Sheet1!$B$21:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -630,7 +619,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$33</c:f>
+              <c:f>Sheet1!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -665,7 +654,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -704,39 +693,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$K$37</c:f>
+              <c:f>Sheet1!$B$29:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>70.224999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>61.006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>63.435000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>58.701999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>61.640999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>64.358000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>66.881</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>68.763999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>64.164000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,7 +734,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$49</c:f>
+              <c:f>Sheet1!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -783,7 +769,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -822,7 +808,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$53:$K$53</c:f>
+              <c:f>Sheet1!$B$45:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -866,7 +852,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$57</c:f>
+              <c:f>Sheet1!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -907,7 +893,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
+              <c:f>Sheet1!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -946,7 +932,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$61:$K$61</c:f>
+              <c:f>Sheet1!$B$53:$K$53</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -993,11 +979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="348716632"/>
-        <c:axId val="348715848"/>
+        <c:axId val="416619928"/>
+        <c:axId val="416621104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="348716632"/>
+        <c:axId val="416619928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,12 +1040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348715848"/>
+        <c:crossAx val="416621104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348715848"/>
+        <c:axId val="416621104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="30"/>
@@ -1117,7 +1103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348716632"/>
+        <c:crossAx val="416619928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1760,13 +1746,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>404814</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>59228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2052,1867 +2038,1756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K59" sqref="K59:K63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L3" s="5">
+        <f xml:space="preserve"> SUM(B3:K3) / COUNT(B3:K3)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="B4" s="5">
+        <v>111299</v>
+      </c>
+      <c r="C4" s="5">
+        <v>109231</v>
+      </c>
+      <c r="D4" s="5">
+        <v>111332</v>
+      </c>
+      <c r="E4" s="5">
+        <v>108375</v>
+      </c>
+      <c r="F4" s="5">
+        <v>107149</v>
+      </c>
+      <c r="G4" s="5">
+        <v>108697</v>
+      </c>
+      <c r="H4" s="5">
+        <v>108123</v>
+      </c>
+      <c r="I4" s="5">
+        <v>110168</v>
+      </c>
+      <c r="J4" s="5">
+        <v>110317</v>
+      </c>
+      <c r="K4" s="5">
+        <v>113216</v>
+      </c>
+      <c r="L4" s="5">
+        <f xml:space="preserve"> SUM(B4:K4) / COUNT(B4:K4)</f>
+        <v>109790.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="B5" s="5">
+        <v>55.65</v>
+      </c>
+      <c r="C5" s="5">
+        <v>54.616</v>
+      </c>
+      <c r="D5" s="5">
+        <v>55.665999999999997</v>
+      </c>
+      <c r="E5" s="5">
+        <v>54.188000000000002</v>
+      </c>
+      <c r="F5" s="5">
+        <v>53.575000000000003</v>
+      </c>
+      <c r="G5" s="5">
+        <v>54.348999999999997</v>
+      </c>
+      <c r="H5" s="5">
+        <v>54.061999999999998</v>
+      </c>
+      <c r="I5" s="5">
+        <v>55.084000000000003</v>
+      </c>
+      <c r="J5" s="5">
+        <v>55.158999999999999</v>
+      </c>
+      <c r="K5" s="5">
+        <v>56.607999999999997</v>
+      </c>
+      <c r="L5" s="5">
+        <f xml:space="preserve"> SUM(B5:K5) / COUNT(B5:K5)</f>
+        <v>54.895699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
+      <c r="B6" s="5">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5">
+        <v>38</v>
+      </c>
+      <c r="I6" s="5">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5">
+        <v>41</v>
+      </c>
+      <c r="K6" s="5">
+        <v>42</v>
+      </c>
+      <c r="L6" s="5">
+        <f xml:space="preserve"> SUM(B6:K6) / COUNT(B6:K6)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="B7" s="5">
+        <v>227</v>
+      </c>
+      <c r="C7" s="5">
+        <v>143</v>
+      </c>
+      <c r="D7" s="5">
+        <v>154</v>
+      </c>
+      <c r="E7" s="5">
+        <v>131</v>
+      </c>
+      <c r="F7" s="5">
+        <v>370</v>
+      </c>
+      <c r="G7" s="5">
+        <v>145</v>
+      </c>
+      <c r="H7" s="5">
+        <v>111</v>
+      </c>
+      <c r="I7" s="5">
+        <v>176</v>
+      </c>
+      <c r="J7" s="5">
+        <v>352</v>
+      </c>
+      <c r="K7" s="5">
+        <v>151</v>
+      </c>
+      <c r="L7" s="5">
+        <f xml:space="preserve"> SUM(B7:K7) / COUNT(B7:K7)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="7">
-        <f xml:space="preserve"> SUM(B3:K3) / COUNT(B3:K3)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <v>33964</v>
-      </c>
-      <c r="C4" s="6">
-        <v>24814</v>
-      </c>
-      <c r="D4" s="6">
-        <v>28945</v>
-      </c>
-      <c r="E4" s="6">
-        <v>29089</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
-        <v>25870</v>
-      </c>
-      <c r="L4" s="7">
-        <f xml:space="preserve"> SUM(B4:K4) / COUNT(B4:K4)</f>
-        <v>28536.400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
-        <v>3.3959999999999999</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2.4809999999999999</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.895</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
-        <v>2.5870000000000002</v>
-      </c>
-      <c r="L5" s="7">
-        <f xml:space="preserve"> SUM(B5:K5) / COUNT(B5:K5)</f>
-        <v>2.8536000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="G10" s="3">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="H10" s="3">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="B11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L11" s="5">
+        <f xml:space="preserve"> SUM(B11:K11) / COUNT(B11:K11)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>78990</v>
+      </c>
+      <c r="C12" s="5">
+        <v>83609</v>
+      </c>
+      <c r="D12" s="5">
+        <v>81830</v>
+      </c>
+      <c r="E12" s="5">
+        <v>79061</v>
+      </c>
+      <c r="F12" s="5">
+        <v>79284</v>
+      </c>
+      <c r="G12" s="5">
+        <v>82723</v>
+      </c>
+      <c r="H12" s="5">
+        <v>80886</v>
+      </c>
+      <c r="I12" s="5">
+        <v>77158</v>
+      </c>
+      <c r="J12" s="5">
+        <v>82739</v>
+      </c>
+      <c r="K12" s="5">
+        <v>79793</v>
+      </c>
+      <c r="L12" s="5">
+        <f xml:space="preserve"> SUM(B12:K12) / COUNT(B12:K12)</f>
+        <v>80607.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>39.494999999999997</v>
+      </c>
+      <c r="C13" s="5">
+        <v>41.805</v>
+      </c>
+      <c r="D13" s="5">
+        <v>40.914999999999999</v>
+      </c>
+      <c r="E13" s="5">
+        <v>39.530999999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>39.642000000000003</v>
+      </c>
+      <c r="G13" s="5">
+        <v>41.362000000000002</v>
+      </c>
+      <c r="H13" s="5">
+        <v>40.442999999999998</v>
+      </c>
+      <c r="I13" s="5">
+        <v>38.579000000000001</v>
+      </c>
+      <c r="J13" s="5">
+        <v>41.37</v>
+      </c>
+      <c r="K13" s="5">
+        <v>39.896999999999998</v>
+      </c>
+      <c r="L13" s="5">
+        <f xml:space="preserve"> SUM(B13:K13) / COUNT(B13:K13)</f>
+        <v>40.303899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5">
+        <v>28</v>
+      </c>
+      <c r="I14" s="5">
+        <v>28</v>
+      </c>
+      <c r="J14" s="5">
+        <v>28</v>
+      </c>
+      <c r="K14" s="5">
+        <v>27</v>
+      </c>
+      <c r="L14" s="5">
+        <f xml:space="preserve"> SUM(B14:K14) / COUNT(B14:K14)</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>374</v>
+      </c>
+      <c r="C15" s="5">
+        <v>207</v>
+      </c>
+      <c r="D15" s="5">
+        <v>423</v>
+      </c>
+      <c r="E15" s="5">
+        <v>356</v>
+      </c>
+      <c r="F15" s="5">
+        <v>208</v>
+      </c>
+      <c r="G15" s="5">
+        <v>126</v>
+      </c>
+      <c r="H15" s="5">
+        <v>167</v>
+      </c>
+      <c r="I15" s="5">
+        <v>349</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1025</v>
+      </c>
+      <c r="K15" s="5">
+        <v>441</v>
+      </c>
+      <c r="L15" s="5">
+        <f xml:space="preserve"> SUM(B15:K15) / COUNT(B15:K15)</f>
+        <v>367.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>9</v>
+      </c>
+      <c r="K18" s="3">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="B19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="5">
+        <f xml:space="preserve"> SUM(B19:K19) / COUNT(B19:K19)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>86381</v>
+      </c>
+      <c r="C20" s="5">
+        <v>87477</v>
+      </c>
+      <c r="D20" s="5">
+        <v>87409</v>
+      </c>
+      <c r="E20" s="5">
+        <v>87905</v>
+      </c>
+      <c r="F20" s="5">
+        <v>86099</v>
+      </c>
+      <c r="G20" s="5">
+        <v>85823</v>
+      </c>
+      <c r="H20" s="5">
+        <v>85519</v>
+      </c>
+      <c r="I20" s="5">
+        <v>89290</v>
+      </c>
+      <c r="J20" s="5">
+        <v>86672</v>
+      </c>
+      <c r="K20" s="5">
+        <v>88563</v>
+      </c>
+      <c r="L20" s="5">
+        <f xml:space="preserve"> SUM(B20:K20) / COUNT(B20:K20)</f>
+        <v>87113.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43.191000000000003</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43.738999999999997</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43.704999999999998</v>
+      </c>
+      <c r="E21" s="5">
+        <v>43.953000000000003</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43.05</v>
+      </c>
+      <c r="G21" s="5">
+        <v>42.911999999999999</v>
+      </c>
+      <c r="H21" s="5">
+        <v>42.76</v>
+      </c>
+      <c r="I21" s="5">
+        <v>44.645000000000003</v>
+      </c>
+      <c r="J21" s="5">
+        <v>43.335999999999999</v>
+      </c>
+      <c r="K21" s="5">
+        <v>44.281999999999996</v>
+      </c>
+      <c r="L21" s="5">
+        <f xml:space="preserve"> SUM(B21:K21) / COUNT(B21:K21)</f>
+        <v>43.557299999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5">
+        <v>34</v>
+      </c>
+      <c r="F22" s="5">
+        <v>34</v>
+      </c>
+      <c r="G22" s="5">
+        <v>33</v>
+      </c>
+      <c r="H22" s="5">
+        <v>33</v>
+      </c>
+      <c r="I22" s="5">
+        <v>34</v>
+      </c>
+      <c r="J22" s="5">
+        <v>34</v>
+      </c>
+      <c r="K22" s="5">
+        <v>33</v>
+      </c>
+      <c r="L22" s="5">
+        <f xml:space="preserve"> SUM(B22:K22) / COUNT(B22:K22)</f>
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>268</v>
+      </c>
+      <c r="C23" s="5">
+        <v>475</v>
+      </c>
+      <c r="D23" s="5">
+        <v>264</v>
+      </c>
+      <c r="E23" s="5">
+        <v>253</v>
+      </c>
+      <c r="F23" s="5">
+        <v>492</v>
+      </c>
+      <c r="G23" s="5">
+        <v>505</v>
+      </c>
+      <c r="H23" s="5">
+        <v>285</v>
+      </c>
+      <c r="I23" s="5">
+        <v>907</v>
+      </c>
+      <c r="J23" s="5">
+        <v>446</v>
+      </c>
+      <c r="K23" s="5">
+        <v>492</v>
+      </c>
+      <c r="L23" s="5">
+        <f xml:space="preserve"> SUM(B23:K23) / COUNT(B23:K23)</f>
+        <v>438.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9</v>
+      </c>
+      <c r="K26" s="3">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="7">
-        <f xml:space="preserve"> SUM(B6:K6) / COUNT(B6:K6)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K27" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L27" s="5">
+        <f xml:space="preserve"> SUM(B27:K27) / COUNT(B27:K27)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5">
+        <v>140450</v>
+      </c>
+      <c r="C28" s="5">
+        <v>122012</v>
+      </c>
+      <c r="D28" s="5">
+        <v>126869</v>
+      </c>
+      <c r="E28" s="5">
+        <v>117404</v>
+      </c>
+      <c r="F28" s="5">
+        <v>123282</v>
+      </c>
+      <c r="G28" s="5">
+        <v>128716</v>
+      </c>
+      <c r="H28" s="5">
+        <v>133761</v>
+      </c>
+      <c r="I28" s="5">
+        <v>137527</v>
+      </c>
+      <c r="J28" s="5">
+        <v>128327</v>
+      </c>
+      <c r="K28" s="5">
+        <v>132352</v>
+      </c>
+      <c r="L28" s="5">
+        <f xml:space="preserve"> SUM(B28:K28) / COUNT(B28:K28)</f>
+        <v>129070</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5">
+        <v>70.224999999999994</v>
+      </c>
+      <c r="C29" s="5">
+        <v>61.006</v>
+      </c>
+      <c r="D29" s="5">
+        <v>63.435000000000002</v>
+      </c>
+      <c r="E29" s="5">
+        <v>58.701999999999998</v>
+      </c>
+      <c r="F29" s="5">
+        <v>61.640999999999998</v>
+      </c>
+      <c r="G29" s="5">
+        <v>64.358000000000004</v>
+      </c>
+      <c r="H29" s="5">
+        <v>66.881</v>
+      </c>
+      <c r="I29" s="5">
+        <v>68.763999999999996</v>
+      </c>
+      <c r="J29" s="5">
+        <v>64.164000000000001</v>
+      </c>
+      <c r="K29" s="5">
+        <v>66.176000000000002</v>
+      </c>
+      <c r="L29" s="5">
+        <f xml:space="preserve"> SUM(B29:K29) / COUNT(B29:K29)</f>
+        <v>64.535200000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5">
+        <v>45</v>
+      </c>
+      <c r="D30" s="5">
+        <v>46</v>
+      </c>
+      <c r="E30" s="5">
+        <v>41</v>
+      </c>
+      <c r="F30" s="5">
+        <v>44</v>
+      </c>
+      <c r="G30" s="5">
+        <v>45</v>
+      </c>
+      <c r="H30" s="5">
+        <v>47</v>
+      </c>
+      <c r="I30" s="5">
+        <v>45</v>
+      </c>
+      <c r="J30" s="5">
+        <v>44</v>
+      </c>
+      <c r="K30" s="5">
+        <v>44</v>
+      </c>
+      <c r="L30" s="5">
+        <f xml:space="preserve"> SUM(B30:K30) / COUNT(B30:K30)</f>
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1101</v>
+      </c>
+      <c r="C31" s="5">
+        <v>385</v>
+      </c>
+      <c r="D31" s="5">
+        <v>289</v>
+      </c>
+      <c r="E31" s="5">
+        <v>607</v>
+      </c>
+      <c r="F31" s="5">
+        <v>219</v>
+      </c>
+      <c r="G31" s="5">
+        <v>301</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1003</v>
+      </c>
+      <c r="I31" s="5">
+        <v>939</v>
+      </c>
+      <c r="J31" s="5">
+        <v>294</v>
+      </c>
+      <c r="K31" s="5">
+        <v>690</v>
+      </c>
+      <c r="L31" s="5">
+        <f xml:space="preserve"> SUM(B31:K31) / COUNT(B31:K31)</f>
+        <v>582.79999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>6</v>
+      </c>
+      <c r="H34" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
-        <v>304</v>
-      </c>
-      <c r="C7" s="6">
-        <v>301</v>
-      </c>
-      <c r="D7" s="6">
-        <v>309</v>
-      </c>
-      <c r="E7" s="6">
-        <v>308</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6">
+      <c r="I34" s="3">
+        <v>8</v>
+      </c>
+      <c r="J34" s="3">
+        <v>9</v>
+      </c>
+      <c r="K34" s="3">
+        <v>10</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K35" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L35" s="5">
+        <f xml:space="preserve"> SUM(B35:K35) / COUNT(B35:K35)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5">
+        <v>427</v>
+      </c>
+      <c r="C36" s="5">
+        <v>283</v>
+      </c>
+      <c r="D36" s="5">
+        <v>200</v>
+      </c>
+      <c r="E36" s="5">
+        <v>201</v>
+      </c>
+      <c r="F36" s="5">
+        <v>154</v>
+      </c>
+      <c r="G36" s="5">
         <v>36</v>
       </c>
-      <c r="L7" s="7">
-        <f xml:space="preserve"> SUM(B7:K7) / COUNT(B7:K7)</f>
-        <v>251.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="H36" s="5">
+        <v>23</v>
+      </c>
+      <c r="I36" s="5">
+        <v>26</v>
+      </c>
+      <c r="J36" s="5">
+        <v>21</v>
+      </c>
+      <c r="K36" s="5">
+        <v>27</v>
+      </c>
+      <c r="L36" s="5">
+        <f xml:space="preserve"> SUM(B36:K36) / COUNT(B36:K36)</f>
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.214</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F37" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L37" s="5">
+        <f xml:space="preserve"> SUM(B37:K37) / COUNT(B37:K37)</f>
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <f xml:space="preserve"> SUM(B38:K38) / COUNT(B38:K38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5">
+        <v>21</v>
+      </c>
+      <c r="F39" s="5">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <f xml:space="preserve"> SUM(B39:K39) / COUNT(B39:K39)</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6</v>
+      </c>
+      <c r="H42" s="3">
+        <v>7</v>
+      </c>
+      <c r="I42" s="3">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9</v>
+      </c>
+      <c r="K42" s="3">
+        <v>10</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L43" s="5">
+        <f xml:space="preserve"> SUM(B43:K43) / COUNT(B43:K43)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5">
+        <v>109135</v>
+      </c>
+      <c r="C44" s="5">
+        <v>109849</v>
+      </c>
+      <c r="D44" s="5">
+        <v>106744</v>
+      </c>
+      <c r="E44" s="5">
+        <v>109025</v>
+      </c>
+      <c r="F44" s="5">
+        <v>107217</v>
+      </c>
+      <c r="G44" s="5">
+        <v>105604</v>
+      </c>
+      <c r="H44" s="5">
+        <v>106809</v>
+      </c>
+      <c r="I44" s="5">
+        <v>104850</v>
+      </c>
+      <c r="J44" s="5">
+        <v>106582</v>
+      </c>
+      <c r="K44" s="5">
+        <v>106078</v>
+      </c>
+      <c r="L44" s="5">
+        <f xml:space="preserve"> SUM(B44:K44) / COUNT(B44:K44)</f>
+        <v>107189.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="5">
+        <v>54.567999999999998</v>
+      </c>
+      <c r="C45" s="5">
+        <v>54.924999999999997</v>
+      </c>
+      <c r="D45" s="5">
+        <v>53.372</v>
+      </c>
+      <c r="E45" s="5">
+        <v>54.512999999999998</v>
+      </c>
+      <c r="F45" s="5">
+        <v>53.609000000000002</v>
+      </c>
+      <c r="G45" s="5">
+        <v>52.802</v>
+      </c>
+      <c r="H45" s="5">
+        <v>53.405000000000001</v>
+      </c>
+      <c r="I45" s="5">
+        <v>52.424999999999997</v>
+      </c>
+      <c r="J45" s="5">
+        <v>53.290999999999997</v>
+      </c>
+      <c r="K45" s="5">
+        <v>53.039000000000001</v>
+      </c>
+      <c r="L45" s="5">
+        <f xml:space="preserve"> SUM(B45:K45) / COUNT(B45:K45)</f>
+        <v>53.59490000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5">
+        <v>40</v>
+      </c>
+      <c r="C46" s="5">
+        <v>41</v>
+      </c>
+      <c r="D46" s="5">
+        <v>41</v>
+      </c>
+      <c r="E46" s="5">
+        <v>40</v>
+      </c>
+      <c r="F46" s="5">
+        <v>39</v>
+      </c>
+      <c r="G46" s="5">
+        <v>39</v>
+      </c>
+      <c r="H46" s="5">
+        <v>39</v>
+      </c>
+      <c r="I46" s="5">
+        <v>40</v>
+      </c>
+      <c r="J46" s="5">
+        <v>41</v>
+      </c>
+      <c r="K46" s="5">
+        <v>39</v>
+      </c>
+      <c r="L46" s="5">
+        <f xml:space="preserve"> SUM(B46:K46) / COUNT(B46:K46)</f>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5">
+        <v>102</v>
+      </c>
+      <c r="C47" s="5">
+        <v>128</v>
+      </c>
+      <c r="D47" s="5">
+        <v>211</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1113</v>
+      </c>
+      <c r="F47" s="5">
+        <v>422</v>
+      </c>
+      <c r="G47" s="5">
+        <v>118</v>
+      </c>
+      <c r="H47" s="5">
+        <v>378</v>
+      </c>
+      <c r="I47" s="5">
+        <v>112</v>
+      </c>
+      <c r="J47" s="5">
+        <v>170</v>
+      </c>
+      <c r="K47" s="5">
+        <v>118</v>
+      </c>
+      <c r="L47" s="5">
+        <f xml:space="preserve"> SUM(B47:K47) / COUNT(B47:K47)</f>
+        <v>287.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C50" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D50" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E50" s="3">
         <v>4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F50" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G50" s="3">
         <v>6</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H50" s="3">
         <v>7</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I50" s="3">
         <v>8</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J50" s="3">
         <v>9</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K50" s="3">
         <v>10</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="B51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L51" s="5">
+        <f xml:space="preserve"> SUM(B51:K51) / COUNT(B51:K51)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="5">
+        <v>106115</v>
+      </c>
+      <c r="C52" s="5">
+        <v>105395</v>
+      </c>
+      <c r="D52" s="5">
+        <v>106931</v>
+      </c>
+      <c r="E52" s="5">
+        <v>106501</v>
+      </c>
+      <c r="F52" s="5">
+        <v>108347</v>
+      </c>
+      <c r="G52" s="5">
+        <v>108010</v>
+      </c>
+      <c r="H52" s="5">
+        <v>108691</v>
+      </c>
+      <c r="I52" s="5">
+        <v>105347</v>
+      </c>
+      <c r="J52" s="5">
+        <v>107312</v>
+      </c>
+      <c r="K52" s="5">
+        <v>110325</v>
+      </c>
+      <c r="L52" s="5">
+        <f xml:space="preserve"> SUM(B52:K52) / COUNT(B52:K52)</f>
+        <v>107297.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L11" s="6">
-        <f xml:space="preserve"> SUM(B11:K11) / COUNT(B11:K11)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B53" s="5">
+        <v>53.058</v>
+      </c>
+      <c r="C53" s="5">
+        <v>52.698</v>
+      </c>
+      <c r="D53" s="5">
+        <v>53.466000000000001</v>
+      </c>
+      <c r="E53" s="5">
+        <v>53.250999999999998</v>
+      </c>
+      <c r="F53" s="5">
+        <v>54.173999999999999</v>
+      </c>
+      <c r="G53" s="5">
+        <v>54.005000000000003</v>
+      </c>
+      <c r="H53" s="5">
+        <v>54.345999999999997</v>
+      </c>
+      <c r="I53" s="5">
+        <v>52.673999999999999</v>
+      </c>
+      <c r="J53" s="5">
+        <v>53.655999999999999</v>
+      </c>
+      <c r="K53" s="5">
+        <v>55.162999999999997</v>
+      </c>
+      <c r="L53" s="5">
+        <f xml:space="preserve"> SUM(B53:K53) / COUNT(B53:K53)</f>
+        <v>53.649099999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6">
-        <v>111299</v>
-      </c>
-      <c r="C12" s="6">
-        <v>109231</v>
-      </c>
-      <c r="D12" s="6">
-        <v>111332</v>
-      </c>
-      <c r="E12" s="6">
-        <v>108375</v>
-      </c>
-      <c r="F12" s="6">
-        <v>107149</v>
-      </c>
-      <c r="G12" s="6">
-        <v>108697</v>
-      </c>
-      <c r="H12" s="6">
-        <v>108123</v>
-      </c>
-      <c r="I12" s="6">
-        <v>110168</v>
-      </c>
-      <c r="J12" s="6">
-        <v>110317</v>
-      </c>
-      <c r="K12" s="6">
-        <v>113216</v>
-      </c>
-      <c r="L12" s="6">
-        <f xml:space="preserve"> SUM(B12:K12) / COUNT(B12:K12)</f>
-        <v>109790.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="B54" s="5">
+        <v>39</v>
+      </c>
+      <c r="C54" s="5">
+        <v>40</v>
+      </c>
+      <c r="D54" s="5">
+        <v>41</v>
+      </c>
+      <c r="E54" s="5">
+        <v>41</v>
+      </c>
+      <c r="F54" s="5">
+        <v>40</v>
+      </c>
+      <c r="G54" s="5">
+        <v>41</v>
+      </c>
+      <c r="H54" s="5">
+        <v>40</v>
+      </c>
+      <c r="I54" s="5">
+        <v>39</v>
+      </c>
+      <c r="J54" s="5">
+        <v>39</v>
+      </c>
+      <c r="K54" s="5">
+        <v>40</v>
+      </c>
+      <c r="L54" s="5">
+        <f xml:space="preserve"> SUM(B54:K54) / COUNT(B54:K54)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6">
-        <v>55.65</v>
-      </c>
-      <c r="C13" s="6">
-        <v>54.616</v>
-      </c>
-      <c r="D13" s="6">
-        <v>55.665999999999997</v>
-      </c>
-      <c r="E13" s="6">
-        <v>54.188000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <v>53.575000000000003</v>
-      </c>
-      <c r="G13" s="6">
-        <v>54.348999999999997</v>
-      </c>
-      <c r="H13" s="6">
-        <v>54.061999999999998</v>
-      </c>
-      <c r="I13" s="6">
-        <v>55.084000000000003</v>
-      </c>
-      <c r="J13" s="6">
-        <v>55.158999999999999</v>
-      </c>
-      <c r="K13" s="6">
-        <v>56.607999999999997</v>
-      </c>
-      <c r="L13" s="6">
-        <f xml:space="preserve"> SUM(B13:K13) / COUNT(B13:K13)</f>
-        <v>54.895699999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6">
-        <v>42</v>
-      </c>
-      <c r="C14" s="6">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6">
-        <v>40</v>
-      </c>
-      <c r="E14" s="6">
-        <v>41</v>
-      </c>
-      <c r="F14" s="6">
-        <v>43</v>
-      </c>
-      <c r="G14" s="6">
-        <v>41</v>
-      </c>
-      <c r="H14" s="6">
-        <v>38</v>
-      </c>
-      <c r="I14" s="6">
-        <v>40</v>
-      </c>
-      <c r="J14" s="6">
-        <v>41</v>
-      </c>
-      <c r="K14" s="6">
-        <v>42</v>
-      </c>
-      <c r="L14" s="6">
-        <f xml:space="preserve"> SUM(B14:K14) / COUNT(B14:K14)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6">
-        <v>227</v>
-      </c>
-      <c r="C15" s="6">
-        <v>143</v>
-      </c>
-      <c r="D15" s="6">
-        <v>154</v>
-      </c>
-      <c r="E15" s="6">
-        <v>131</v>
-      </c>
-      <c r="F15" s="6">
-        <v>370</v>
-      </c>
-      <c r="G15" s="6">
-        <v>145</v>
-      </c>
-      <c r="H15" s="6">
-        <v>111</v>
-      </c>
-      <c r="I15" s="6">
-        <v>176</v>
-      </c>
-      <c r="J15" s="6">
-        <v>352</v>
-      </c>
-      <c r="K15" s="6">
-        <v>151</v>
-      </c>
-      <c r="L15" s="6">
-        <f xml:space="preserve"> SUM(B15:K15) / COUNT(B15:K15)</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>6</v>
-      </c>
-      <c r="H18" s="4">
-        <v>7</v>
-      </c>
-      <c r="I18" s="4">
-        <v>8</v>
-      </c>
-      <c r="J18" s="4">
-        <v>9</v>
-      </c>
-      <c r="K18" s="4">
-        <v>10</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L19" s="6">
-        <f xml:space="preserve"> SUM(B19:K19) / COUNT(B19:K19)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6">
-        <v>78990</v>
-      </c>
-      <c r="C20" s="6">
-        <v>83609</v>
-      </c>
-      <c r="D20" s="6">
-        <v>81830</v>
-      </c>
-      <c r="E20" s="6">
-        <v>79061</v>
-      </c>
-      <c r="F20" s="6">
-        <v>79284</v>
-      </c>
-      <c r="G20" s="6">
-        <v>82723</v>
-      </c>
-      <c r="H20" s="6">
-        <v>80886</v>
-      </c>
-      <c r="I20" s="6">
-        <v>77158</v>
-      </c>
-      <c r="J20" s="6">
-        <v>82739</v>
-      </c>
-      <c r="K20" s="6">
-        <v>79793</v>
-      </c>
-      <c r="L20" s="6">
-        <f xml:space="preserve"> SUM(B20:K20) / COUNT(B20:K20)</f>
-        <v>80607.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="6">
-        <v>39.494999999999997</v>
-      </c>
-      <c r="C21" s="6">
-        <v>41.805</v>
-      </c>
-      <c r="D21" s="6">
-        <v>40.914999999999999</v>
-      </c>
-      <c r="E21" s="6">
-        <v>39.530999999999999</v>
-      </c>
-      <c r="F21" s="6">
-        <v>39.642000000000003</v>
-      </c>
-      <c r="G21" s="6">
-        <v>41.362000000000002</v>
-      </c>
-      <c r="H21" s="6">
-        <v>40.442999999999998</v>
-      </c>
-      <c r="I21" s="6">
-        <v>38.579000000000001</v>
-      </c>
-      <c r="J21" s="6">
-        <v>41.37</v>
-      </c>
-      <c r="K21" s="6">
-        <v>39.896999999999998</v>
-      </c>
-      <c r="L21" s="6">
-        <f xml:space="preserve"> SUM(B21:K21) / COUNT(B21:K21)</f>
-        <v>40.303899999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="6">
-        <v>28</v>
-      </c>
-      <c r="C22" s="6">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6">
-        <v>28</v>
-      </c>
-      <c r="E22" s="6">
-        <v>28</v>
-      </c>
-      <c r="F22" s="6">
-        <v>28</v>
-      </c>
-      <c r="G22" s="6">
-        <v>28</v>
-      </c>
-      <c r="H22" s="6">
-        <v>28</v>
-      </c>
-      <c r="I22" s="6">
-        <v>28</v>
-      </c>
-      <c r="J22" s="6">
-        <v>28</v>
-      </c>
-      <c r="K22" s="6">
-        <v>27</v>
-      </c>
-      <c r="L22" s="6">
-        <f xml:space="preserve"> SUM(B22:K22) / COUNT(B22:K22)</f>
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6">
-        <v>374</v>
-      </c>
-      <c r="C23" s="6">
-        <v>207</v>
-      </c>
-      <c r="D23" s="6">
-        <v>423</v>
-      </c>
-      <c r="E23" s="6">
-        <v>356</v>
-      </c>
-      <c r="F23" s="6">
-        <v>208</v>
-      </c>
-      <c r="G23" s="6">
-        <v>126</v>
-      </c>
-      <c r="H23" s="6">
-        <v>167</v>
-      </c>
-      <c r="I23" s="6">
-        <v>349</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1025</v>
-      </c>
-      <c r="K23" s="6">
-        <v>441</v>
-      </c>
-      <c r="L23" s="6">
-        <f xml:space="preserve"> SUM(B23:K23) / COUNT(B23:K23)</f>
-        <v>367.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4">
-        <v>4</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>6</v>
-      </c>
-      <c r="H26" s="4">
-        <v>7</v>
-      </c>
-      <c r="I26" s="4">
-        <v>8</v>
-      </c>
-      <c r="J26" s="4">
-        <v>9</v>
-      </c>
-      <c r="K26" s="4">
-        <v>10</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K27" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L27" s="6">
-        <f xml:space="preserve"> SUM(B27:K27) / COUNT(B27:K27)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="6">
-        <v>86381</v>
-      </c>
-      <c r="C28" s="6">
-        <v>87477</v>
-      </c>
-      <c r="D28" s="6">
-        <v>87409</v>
-      </c>
-      <c r="E28" s="6">
-        <v>87905</v>
-      </c>
-      <c r="F28" s="6">
-        <v>86099</v>
-      </c>
-      <c r="G28" s="6">
-        <v>85823</v>
-      </c>
-      <c r="H28" s="6">
-        <v>85519</v>
-      </c>
-      <c r="I28" s="6">
-        <v>89290</v>
-      </c>
-      <c r="J28" s="6">
-        <v>86672</v>
-      </c>
-      <c r="K28" s="6">
-        <v>88563</v>
-      </c>
-      <c r="L28" s="6">
-        <f xml:space="preserve"> SUM(B28:K28) / COUNT(B28:K28)</f>
-        <v>87113.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="6">
-        <v>43.191000000000003</v>
-      </c>
-      <c r="C29" s="6">
-        <v>43.738999999999997</v>
-      </c>
-      <c r="D29" s="6">
-        <v>43.704999999999998</v>
-      </c>
-      <c r="E29" s="6">
-        <v>43.953000000000003</v>
-      </c>
-      <c r="F29" s="6">
-        <v>43.05</v>
-      </c>
-      <c r="G29" s="6">
-        <v>42.911999999999999</v>
-      </c>
-      <c r="H29" s="6">
-        <v>42.76</v>
-      </c>
-      <c r="I29" s="6">
-        <v>44.645000000000003</v>
-      </c>
-      <c r="J29" s="6">
-        <v>43.335999999999999</v>
-      </c>
-      <c r="K29" s="6">
-        <v>44.281999999999996</v>
-      </c>
-      <c r="L29" s="6">
-        <f xml:space="preserve"> SUM(B29:K29) / COUNT(B29:K29)</f>
-        <v>43.557299999999991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="6">
-        <v>33</v>
-      </c>
-      <c r="C30" s="6">
-        <v>33</v>
-      </c>
-      <c r="D30" s="6">
-        <v>33</v>
-      </c>
-      <c r="E30" s="6">
-        <v>34</v>
-      </c>
-      <c r="F30" s="6">
-        <v>34</v>
-      </c>
-      <c r="G30" s="6">
-        <v>33</v>
-      </c>
-      <c r="H30" s="6">
-        <v>33</v>
-      </c>
-      <c r="I30" s="6">
-        <v>34</v>
-      </c>
-      <c r="J30" s="6">
-        <v>34</v>
-      </c>
-      <c r="K30" s="6">
-        <v>33</v>
-      </c>
-      <c r="L30" s="6">
-        <f xml:space="preserve"> SUM(B30:K30) / COUNT(B30:K30)</f>
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6">
-        <v>268</v>
-      </c>
-      <c r="C31" s="6">
-        <v>475</v>
-      </c>
-      <c r="D31" s="6">
-        <v>264</v>
-      </c>
-      <c r="E31" s="6">
-        <v>253</v>
-      </c>
-      <c r="F31" s="6">
-        <v>492</v>
-      </c>
-      <c r="G31" s="6">
-        <v>505</v>
-      </c>
-      <c r="H31" s="6">
-        <v>285</v>
-      </c>
-      <c r="I31" s="6">
-        <v>907</v>
-      </c>
-      <c r="J31" s="6">
-        <v>446</v>
-      </c>
-      <c r="K31" s="6">
-        <v>492</v>
-      </c>
-      <c r="L31" s="6">
-        <f xml:space="preserve"> SUM(B31:K31) / COUNT(B31:K31)</f>
-        <v>438.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>4</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5</v>
-      </c>
-      <c r="G34" s="4">
-        <v>6</v>
-      </c>
-      <c r="H34" s="4">
-        <v>7</v>
-      </c>
-      <c r="I34" s="4">
-        <v>8</v>
-      </c>
-      <c r="J34" s="4">
-        <v>9</v>
-      </c>
-      <c r="K34" s="4">
-        <v>10</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6" t="e">
-        <f xml:space="preserve"> SUM(B35:K35) / COUNT(B35:K35)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6" t="e">
-        <f xml:space="preserve"> SUM(B36:K36) / COUNT(B36:K36)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="6">
-        <v>35</v>
-      </c>
-      <c r="C37" s="6">
-        <v>35</v>
-      </c>
-      <c r="D37" s="6">
-        <v>35</v>
-      </c>
-      <c r="E37" s="6">
-        <v>35</v>
-      </c>
-      <c r="F37" s="6">
-        <v>35</v>
-      </c>
-      <c r="G37" s="6">
-        <v>35</v>
-      </c>
-      <c r="H37" s="6">
-        <v>35</v>
-      </c>
-      <c r="I37" s="6">
-        <v>35</v>
-      </c>
-      <c r="J37" s="6">
-        <v>35</v>
-      </c>
-      <c r="K37" s="6">
-        <v>35</v>
-      </c>
-      <c r="L37" s="6">
-        <f xml:space="preserve"> SUM(B37:K37) / COUNT(B37:K37)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6" t="e">
-        <f xml:space="preserve"> SUM(B38:K38) / COUNT(B38:K38)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6" t="e">
-        <f xml:space="preserve"> SUM(B39:K39) / COUNT(B39:K39)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4">
-        <v>4</v>
-      </c>
-      <c r="F42" s="4">
-        <v>5</v>
-      </c>
-      <c r="G42" s="4">
-        <v>6</v>
-      </c>
-      <c r="H42" s="4">
-        <v>7</v>
-      </c>
-      <c r="I42" s="4">
-        <v>8</v>
-      </c>
-      <c r="J42" s="4">
-        <v>9</v>
-      </c>
-      <c r="K42" s="4">
-        <v>10</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K43" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L43" s="6">
-        <f xml:space="preserve"> SUM(B43:K43) / COUNT(B43:K43)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="B55" s="5">
+        <v>384</v>
+      </c>
+      <c r="C55" s="5">
+        <v>113</v>
+      </c>
+      <c r="D55" s="5">
+        <v>185</v>
+      </c>
+      <c r="E55" s="5">
+        <v>106</v>
+      </c>
+      <c r="F55" s="5">
+        <v>114</v>
+      </c>
+      <c r="G55" s="5">
+        <v>96</v>
+      </c>
+      <c r="H55" s="5">
         <v>427</v>
       </c>
-      <c r="C44" s="6">
-        <v>283</v>
-      </c>
-      <c r="D44" s="6">
-        <v>200</v>
-      </c>
-      <c r="E44" s="6">
-        <v>201</v>
-      </c>
-      <c r="F44" s="6">
-        <v>154</v>
-      </c>
-      <c r="G44" s="6">
-        <v>36</v>
-      </c>
-      <c r="H44" s="6">
-        <v>23</v>
-      </c>
-      <c r="I44" s="6">
-        <v>26</v>
-      </c>
-      <c r="J44" s="6">
-        <v>21</v>
-      </c>
-      <c r="K44" s="6">
-        <v>27</v>
-      </c>
-      <c r="L44" s="6">
-        <f xml:space="preserve"> SUM(B44:K44) / COUNT(B44:K44)</f>
-        <v>139.80000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="6">
-        <v>0.214</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="F45" s="6">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="G45" s="6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H45" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I45" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K45" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L45" s="6">
-        <f xml:space="preserve"> SUM(B45:K45) / COUNT(B45:K45)</f>
-        <v>7.0199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="6">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <f xml:space="preserve"> SUM(B46:K46) / COUNT(B46:K46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="6">
-        <v>2</v>
-      </c>
-      <c r="C47" s="6">
-        <v>15</v>
-      </c>
-      <c r="D47" s="6">
-        <v>4</v>
-      </c>
-      <c r="E47" s="6">
-        <v>21</v>
-      </c>
-      <c r="F47" s="6">
-        <v>10</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1</v>
-      </c>
-      <c r="H47" s="6">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6">
-        <v>1</v>
-      </c>
-      <c r="J47" s="6">
-        <v>1</v>
-      </c>
-      <c r="K47" s="6">
-        <v>1</v>
-      </c>
-      <c r="L47" s="6">
-        <f xml:space="preserve"> SUM(B47:K47) / COUNT(B47:K47)</f>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="4">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4">
-        <v>4</v>
-      </c>
-      <c r="F50" s="4">
-        <v>5</v>
-      </c>
-      <c r="G50" s="4">
-        <v>6</v>
-      </c>
-      <c r="H50" s="4">
-        <v>7</v>
-      </c>
-      <c r="I50" s="4">
-        <v>8</v>
-      </c>
-      <c r="J50" s="4">
-        <v>9</v>
-      </c>
-      <c r="K50" s="4">
-        <v>10</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K51" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L51" s="6">
-        <f xml:space="preserve"> SUM(B51:K51) / COUNT(B51:K51)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="6">
-        <v>109135</v>
-      </c>
-      <c r="C52" s="6">
-        <v>109849</v>
-      </c>
-      <c r="D52" s="6">
-        <v>106744</v>
-      </c>
-      <c r="E52" s="6">
-        <v>109025</v>
-      </c>
-      <c r="F52" s="6">
-        <v>107217</v>
-      </c>
-      <c r="G52" s="6">
-        <v>105604</v>
-      </c>
-      <c r="H52" s="6">
-        <v>106809</v>
-      </c>
-      <c r="I52" s="6">
-        <v>104850</v>
-      </c>
-      <c r="J52" s="6">
-        <v>106582</v>
-      </c>
-      <c r="K52" s="6">
-        <v>106078</v>
-      </c>
-      <c r="L52" s="6">
-        <f xml:space="preserve"> SUM(B52:K52) / COUNT(B52:K52)</f>
-        <v>107189.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="6">
-        <v>54.567999999999998</v>
-      </c>
-      <c r="C53" s="6">
-        <v>54.924999999999997</v>
-      </c>
-      <c r="D53" s="6">
-        <v>53.372</v>
-      </c>
-      <c r="E53" s="6">
-        <v>54.512999999999998</v>
-      </c>
-      <c r="F53" s="6">
-        <v>53.609000000000002</v>
-      </c>
-      <c r="G53" s="6">
-        <v>52.802</v>
-      </c>
-      <c r="H53" s="6">
-        <v>53.405000000000001</v>
-      </c>
-      <c r="I53" s="6">
-        <v>52.424999999999997</v>
-      </c>
-      <c r="J53" s="6">
-        <v>53.290999999999997</v>
-      </c>
-      <c r="K53" s="6">
-        <v>53.039000000000001</v>
-      </c>
-      <c r="L53" s="6">
-        <f xml:space="preserve"> SUM(B53:K53) / COUNT(B53:K53)</f>
-        <v>53.59490000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="6">
-        <v>40</v>
-      </c>
-      <c r="C54" s="6">
-        <v>41</v>
-      </c>
-      <c r="D54" s="6">
-        <v>41</v>
-      </c>
-      <c r="E54" s="6">
-        <v>40</v>
-      </c>
-      <c r="F54" s="6">
-        <v>39</v>
-      </c>
-      <c r="G54" s="6">
-        <v>39</v>
-      </c>
-      <c r="H54" s="6">
-        <v>39</v>
-      </c>
-      <c r="I54" s="6">
-        <v>40</v>
-      </c>
-      <c r="J54" s="6">
-        <v>41</v>
-      </c>
-      <c r="K54" s="6">
-        <v>39</v>
-      </c>
-      <c r="L54" s="6">
-        <f xml:space="preserve"> SUM(B54:K54) / COUNT(B54:K54)</f>
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="6">
-        <v>102</v>
-      </c>
-      <c r="C55" s="6">
-        <v>128</v>
-      </c>
-      <c r="D55" s="6">
-        <v>211</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1113</v>
-      </c>
-      <c r="F55" s="6">
-        <v>422</v>
-      </c>
-      <c r="G55" s="6">
-        <v>118</v>
-      </c>
-      <c r="H55" s="6">
-        <v>378</v>
-      </c>
-      <c r="I55" s="6">
-        <v>112</v>
-      </c>
-      <c r="J55" s="6">
-        <v>170</v>
-      </c>
-      <c r="K55" s="6">
-        <v>118</v>
-      </c>
-      <c r="L55" s="6">
+      <c r="I55" s="5">
+        <v>110</v>
+      </c>
+      <c r="J55" s="5">
+        <v>109</v>
+      </c>
+      <c r="K55" s="5">
+        <v>169</v>
+      </c>
+      <c r="L55" s="5">
         <f xml:space="preserve"> SUM(B55:K55) / COUNT(B55:K55)</f>
-        <v>287.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-      <c r="C58" s="4">
-        <v>2</v>
-      </c>
-      <c r="D58" s="4">
-        <v>3</v>
-      </c>
-      <c r="E58" s="4">
-        <v>4</v>
-      </c>
-      <c r="F58" s="4">
-        <v>5</v>
-      </c>
-      <c r="G58" s="4">
-        <v>6</v>
-      </c>
-      <c r="H58" s="4">
-        <v>7</v>
-      </c>
-      <c r="I58" s="4">
-        <v>8</v>
-      </c>
-      <c r="J58" s="4">
-        <v>9</v>
-      </c>
-      <c r="K58" s="4">
-        <v>10</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="H59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="J59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L59" s="6">
-        <f xml:space="preserve"> SUM(B59:K59) / COUNT(B59:K59)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="6">
-        <v>106115</v>
-      </c>
-      <c r="C60" s="6">
-        <v>105395</v>
-      </c>
-      <c r="D60" s="6">
-        <v>106931</v>
-      </c>
-      <c r="E60" s="6">
-        <v>106501</v>
-      </c>
-      <c r="F60" s="6">
-        <v>108347</v>
-      </c>
-      <c r="G60" s="6">
-        <v>108010</v>
-      </c>
-      <c r="H60" s="6">
-        <v>108691</v>
-      </c>
-      <c r="I60" s="6">
-        <v>105347</v>
-      </c>
-      <c r="J60" s="6">
-        <v>107312</v>
-      </c>
-      <c r="K60" s="6">
-        <v>110325</v>
-      </c>
-      <c r="L60" s="6">
-        <f xml:space="preserve"> SUM(B60:K60) / COUNT(B60:K60)</f>
-        <v>107297.4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="6">
-        <v>53.058</v>
-      </c>
-      <c r="C61" s="6">
-        <v>52.698</v>
-      </c>
-      <c r="D61" s="6">
-        <v>53.466000000000001</v>
-      </c>
-      <c r="E61" s="6">
-        <v>53.250999999999998</v>
-      </c>
-      <c r="F61" s="6">
-        <v>54.173999999999999</v>
-      </c>
-      <c r="G61" s="6">
-        <v>54.005000000000003</v>
-      </c>
-      <c r="H61" s="6">
-        <v>54.345999999999997</v>
-      </c>
-      <c r="I61" s="6">
-        <v>52.673999999999999</v>
-      </c>
-      <c r="J61" s="6">
-        <v>53.655999999999999</v>
-      </c>
-      <c r="K61" s="6">
-        <v>55.162999999999997</v>
-      </c>
-      <c r="L61" s="6">
-        <f xml:space="preserve"> SUM(B61:K61) / COUNT(B61:K61)</f>
-        <v>53.649099999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="6">
-        <v>39</v>
-      </c>
-      <c r="C62" s="6">
-        <v>40</v>
-      </c>
-      <c r="D62" s="6">
-        <v>41</v>
-      </c>
-      <c r="E62" s="6">
-        <v>41</v>
-      </c>
-      <c r="F62" s="6">
-        <v>40</v>
-      </c>
-      <c r="G62" s="6">
-        <v>41</v>
-      </c>
-      <c r="H62" s="6">
-        <v>40</v>
-      </c>
-      <c r="I62" s="6">
-        <v>39</v>
-      </c>
-      <c r="J62" s="6">
-        <v>39</v>
-      </c>
-      <c r="K62" s="6">
-        <v>40</v>
-      </c>
-      <c r="L62" s="6">
-        <f xml:space="preserve"> SUM(B62:K62) / COUNT(B62:K62)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="6">
-        <v>384</v>
-      </c>
-      <c r="C63" s="6">
-        <v>113</v>
-      </c>
-      <c r="D63" s="6">
-        <v>185</v>
-      </c>
-      <c r="E63" s="6">
-        <v>106</v>
-      </c>
-      <c r="F63" s="6">
-        <v>114</v>
-      </c>
-      <c r="G63" s="6">
-        <v>96</v>
-      </c>
-      <c r="H63" s="6">
-        <v>427</v>
-      </c>
-      <c r="I63" s="6">
-        <v>110</v>
-      </c>
-      <c r="J63" s="6">
-        <v>109</v>
-      </c>
-      <c r="K63" s="6">
-        <v>169</v>
-      </c>
-      <c r="L63" s="6">
-        <f xml:space="preserve"> SUM(B63:K63) / COUNT(B63:K63)</f>
         <v>181.3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
